--- a/data/output/FV2504_FV2410/UTILMD/55073.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55073.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="339">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4617" uniqueCount="339">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1123,6 +1123,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U210" totalsRowShown="0">
+  <autoFilter ref="A1:U210"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,7 +1442,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11401,5 +11434,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55073.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55073.xlsx
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4841,54 +4841,54 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="2" t="s">
         <v>314</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N55" s="5" t="s">
+      <c r="N55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="O55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P55" s="5"/>
+      <c r="P55" s="2"/>
       <c r="Q55" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5" t="s">
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="V55" s="5" t="s">
+      <c r="V55" s="2" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
         <v>315</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7105,7 +7105,7 @@
         <v>316</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7303,7 +7303,7 @@
         <v>317</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7423,52 +7423,52 @@
       <c r="V104" s="5"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="2"/>
       <c r="F105" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5" t="s">
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K105" s="5"/>
+      <c r="K105" s="2"/>
       <c r="L105" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="M105" s="5" t="s">
+      <c r="M105" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O105" s="5" t="s">
+      <c r="O105" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P105" s="5"/>
+      <c r="P105" s="2"/>
       <c r="Q105" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5" t="s">
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V105" s="5"/>
+      <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -7717,7 +7717,7 @@
         <v>318</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7927,7 +7927,7 @@
         <v>318</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8137,7 +8137,7 @@
         <v>318</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8347,7 +8347,7 @@
         <v>318</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -9927,7 +9927,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11469,7 +11469,7 @@
         <v>316</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11667,7 +11667,7 @@
         <v>321</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12059,7 +12059,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12559,7 +12559,7 @@
         <v>316</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12735,48 +12735,48 @@
       <c r="V207" s="5"/>
     </row>
     <row r="208" spans="1:22">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5" t="s">
+      <c r="C208" s="2"/>
+      <c r="D208" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E208" s="5"/>
+      <c r="E208" s="2"/>
       <c r="F208" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5" t="s">
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K208" s="5"/>
+      <c r="K208" s="2"/>
       <c r="L208" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="M208" s="5" t="s">
+      <c r="M208" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N208" s="5"/>
-      <c r="O208" s="5" t="s">
+      <c r="N208" s="2"/>
+      <c r="O208" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P208" s="5"/>
+      <c r="P208" s="2"/>
       <c r="Q208" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="R208" s="5"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
-      <c r="U208" s="5" t="s">
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V208" s="5"/>
+      <c r="V208" s="2"/>
     </row>
     <row r="209" spans="1:22">
       <c r="A209" s="5" t="s">
